--- a/game_results.xlsx
+++ b/game_results.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BDD685B-47E9-4FB4-B7B0-0E02844EF061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE89CA1-B32D-405B-9517-DBFEBDC7BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="77">
   <si>
     <t>winner</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>Nic</t>
@@ -677,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G375"/>
+  <dimension ref="A1:G388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="F382" sqref="F382:F388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,22 +711,25 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
         <v>45231</v>
@@ -731,19 +737,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <v>45231</v>
@@ -751,19 +757,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
         <v>45231</v>
@@ -771,19 +777,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2">
         <v>45231</v>
@@ -791,19 +797,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
         <v>45231</v>
@@ -811,19 +817,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2">
         <v>45231</v>
@@ -831,19 +837,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2">
         <v>45231</v>
@@ -851,19 +857,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2">
         <v>45231</v>
@@ -871,19 +877,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2">
         <v>45231</v>
@@ -891,19 +897,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2">
         <v>45231</v>
@@ -911,19 +917,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2">
         <v>45231</v>
@@ -931,19 +937,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2">
         <v>45231</v>
@@ -951,19 +957,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2">
         <v>45231</v>
@@ -971,19 +977,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2">
         <v>45231</v>
@@ -991,19 +997,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" s="2">
         <v>45231</v>
@@ -1011,19 +1017,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2">
         <v>45231</v>
@@ -1031,19 +1037,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2">
         <v>45231</v>
@@ -1051,19 +1057,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2">
         <v>45231</v>
@@ -1071,19 +1077,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2">
         <v>45231</v>
@@ -1091,19 +1097,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2">
         <v>45231</v>
@@ -1111,19 +1117,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" s="2">
         <v>45231</v>
@@ -1131,19 +1137,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2">
         <v>45231</v>
@@ -1151,19 +1157,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" s="2">
         <v>45231</v>
@@ -1171,19 +1177,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2">
         <v>45231</v>
@@ -1191,19 +1197,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" s="2">
         <v>45231</v>
@@ -1211,19 +1217,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" s="2">
         <v>45231</v>
@@ -1231,19 +1237,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" s="2">
         <v>45231</v>
@@ -1251,19 +1257,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2">
         <v>45231</v>
@@ -1271,19 +1277,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2">
         <v>45231</v>
@@ -1291,19 +1297,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2">
         <v>45231</v>
@@ -1311,19 +1317,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2">
         <v>45231</v>
@@ -1331,19 +1337,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2">
         <v>45231</v>
@@ -1351,19 +1357,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2">
         <v>45231</v>
@@ -1371,19 +1377,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35" s="2">
         <v>45231</v>
@@ -1391,19 +1397,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F36" s="2">
         <v>45231</v>
@@ -1411,19 +1417,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37" s="2">
         <v>45231</v>
@@ -1431,19 +1437,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2">
         <v>45231</v>
@@ -1451,19 +1457,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" s="2">
         <v>45231</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40" s="2">
         <v>45231</v>
@@ -1491,19 +1497,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" s="2">
         <v>45231</v>
@@ -1511,19 +1517,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42" s="2">
         <v>45231</v>
@@ -1531,19 +1537,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2">
         <v>45231</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" s="2">
         <v>45231</v>
@@ -1571,19 +1577,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45" s="2">
         <v>45231</v>
@@ -1591,19 +1597,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46" s="2">
         <v>45231</v>
@@ -1611,19 +1617,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F47" s="2">
         <v>45231</v>
@@ -1631,19 +1637,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" s="2">
         <v>45231</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49">
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49">
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F49" s="2">
         <v>45231</v>
@@ -1671,19 +1677,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" s="2">
         <v>45231</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F51" s="2">
         <v>45231</v>
@@ -1711,19 +1717,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F52" s="2">
         <v>45231</v>
@@ -1731,19 +1737,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F53" s="2">
         <v>45231</v>
@@ -1751,19 +1757,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54">
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F54" s="2">
         <v>45231</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55">
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F55" s="2">
         <v>45231</v>
@@ -1791,19 +1797,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56">
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F56" s="2">
         <v>45231</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F57" s="2">
         <v>45231</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58" s="2">
         <v>45231</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59">
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F59" s="2">
         <v>45231</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60">
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F60" s="2">
         <v>45231</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B61">
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F61" s="2">
         <v>45231</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F62" s="2">
         <v>45292</v>
@@ -1931,19 +1937,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F63" s="2">
         <v>45292</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F64" s="2">
         <v>45292</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F65" s="2">
         <v>45292</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F66" s="2">
         <v>45292</v>
@@ -2011,19 +2017,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F67" s="2">
         <v>45292</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F68" s="2">
         <v>45292</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F69" s="2">
         <v>45292</v>
@@ -2071,19 +2077,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F70" s="2">
         <v>45292</v>
@@ -2091,19 +2097,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>31</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>30</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F71" s="2">
         <v>45292</v>
@@ -2111,19 +2117,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F72" s="2">
         <v>45292</v>
@@ -2131,19 +2137,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F73" s="2">
         <v>45292</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F74" s="2">
         <v>45292</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F75" s="2">
         <v>45292</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F76" s="2">
         <v>45292</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
         <v>35</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>34</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F77" s="2">
         <v>45292</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F78" s="2">
         <v>45292</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F79" s="2">
         <v>45292</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F80" s="2">
         <v>45292</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F81" s="2">
         <v>45292</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F82" s="2">
         <v>45292</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F83" s="2">
         <v>45292</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F84" s="2">
         <v>45292</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
         <v>38</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>37</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F85" s="2">
         <v>45292</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F86" s="2">
         <v>45292</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F87" s="2">
         <v>45292</v>
@@ -2431,19 +2437,19 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F88" s="2">
         <v>45292</v>
@@ -2451,19 +2457,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F89" s="2">
         <v>45292</v>
@@ -2471,19 +2477,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F90" s="2">
         <v>45292</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F91" s="2">
         <v>45292</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F92" s="2">
         <v>45292</v>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F93" s="2">
         <v>45292</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F94" s="2">
         <v>45292</v>
@@ -2571,19 +2577,19 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F95" s="2">
         <v>45292</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F96" s="2">
         <v>45292</v>
@@ -2611,19 +2617,19 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F97" s="2">
         <v>45292</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F98" s="2">
         <v>45292</v>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F99" s="2">
         <v>45292</v>
@@ -2671,19 +2677,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F100" s="2">
         <v>45292</v>
@@ -2691,19 +2697,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F101" s="2">
         <v>45292</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
         <v>44</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>43</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F102" s="2">
         <v>45292</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F103" s="2">
         <v>45292</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F104" s="2">
         <v>45292</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F105" s="2">
         <v>45292</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F106" s="2">
         <v>45292</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107">
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F107" s="2">
         <v>45292</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F108" s="2">
         <v>45292</v>
@@ -2851,19 +2857,19 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F109" s="2">
         <v>45292</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B110">
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F110" s="2">
         <v>45292</v>
@@ -2891,19 +2897,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F111" s="2">
         <v>45352</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F112" s="2">
         <v>45352</v>
@@ -2931,19 +2937,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F113" s="2">
         <v>45352</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D114">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F114" s="2">
         <v>45352</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B115">
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F115" s="2">
         <v>45352</v>
@@ -2991,19 +2997,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B116">
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D116">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F116" s="2">
         <v>45352</v>
@@ -3011,19 +3017,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F117" s="2">
         <v>45352</v>
@@ -3031,19 +3037,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F118" s="2">
         <v>45352</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F119" s="2">
         <v>45352</v>
@@ -3071,19 +3077,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F120" s="2">
         <v>45352</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B121">
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F121" s="2">
         <v>45352</v>
@@ -3111,19 +3117,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122">
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F122" s="2">
         <v>45352</v>
@@ -3131,19 +3137,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B123">
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F123" s="2">
         <v>45352</v>
@@ -3151,19 +3157,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B124">
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F124" s="2">
         <v>45352</v>
@@ -3171,19 +3177,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B125">
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F125" s="2">
         <v>45352</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B126">
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F126" s="2">
         <v>45352</v>
@@ -3211,19 +3217,19 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B127">
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F127" s="2">
         <v>45352</v>
@@ -3231,19 +3237,19 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B128">
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D128">
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F128" s="2">
         <v>45352</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F129" s="2">
         <v>45352</v>
@@ -3271,19 +3277,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B130">
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D130">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F130" s="2">
         <v>45352</v>
@@ -3291,19 +3297,19 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F131" s="2">
         <v>45352</v>
@@ -3311,19 +3317,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F132" s="2">
         <v>45352</v>
@@ -3331,19 +3337,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B133">
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F133" s="2">
         <v>45352</v>
@@ -3351,19 +3357,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F134" s="2">
         <v>45352</v>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F135" s="2">
         <v>45352</v>
@@ -3391,19 +3397,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F136" s="2">
         <v>45352</v>
@@ -3411,19 +3417,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B137">
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D137">
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F137" s="2">
         <v>45352</v>
@@ -3431,19 +3437,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B138">
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D138">
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F138" s="2">
         <v>45352</v>
@@ -3451,19 +3457,19 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B139">
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F139" s="2">
         <v>45352</v>
@@ -3471,19 +3477,19 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B140">
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F140" s="2">
         <v>45352</v>
@@ -3491,19 +3497,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B141">
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F141" s="2">
         <v>45352</v>
@@ -3511,19 +3517,19 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B142">
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F142" s="2">
         <v>45413</v>
@@ -3531,19 +3537,19 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B143">
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F143" s="2">
         <v>45413</v>
@@ -3551,19 +3557,19 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B144">
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F144" s="2">
         <v>45413</v>
@@ -3571,19 +3577,19 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
         <v>45</v>
-      </c>
-      <c r="B145">
-        <v>6</v>
-      </c>
-      <c r="C145" t="s">
-        <v>44</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F145" s="2">
         <v>45413</v>
@@ -3591,19 +3597,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B146">
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D146">
         <v>4</v>
       </c>
       <c r="E146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F146" s="2">
         <v>45413</v>
@@ -3611,19 +3617,19 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D147">
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F147" s="2">
         <v>45413</v>
@@ -3631,19 +3637,19 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B148">
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D148">
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F148" s="2">
         <v>45413</v>
@@ -3651,19 +3657,19 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B149">
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D149">
         <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F149" s="2">
         <v>45413</v>
@@ -3671,19 +3677,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B150">
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F150" s="2">
         <v>45413</v>
@@ -3691,19 +3697,19 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B151">
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151">
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F151" s="2">
         <v>45413</v>
@@ -3711,19 +3717,19 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B152">
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D152">
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F152" s="2">
         <v>45413</v>
@@ -3731,19 +3737,19 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B153">
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F153" s="2">
         <v>45413</v>
@@ -3751,19 +3757,19 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B154">
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D154">
         <v>6</v>
       </c>
       <c r="E154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F154" s="2">
         <v>45413</v>
@@ -3771,19 +3777,19 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B155">
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F155" s="2">
         <v>45413</v>
@@ -3791,19 +3797,19 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B156">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D156">
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F156" s="2">
         <v>45413</v>
@@ -3811,19 +3817,19 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B157">
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F157" s="2">
         <v>45413</v>
@@ -3831,19 +3837,19 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B158">
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D158">
         <v>6</v>
       </c>
       <c r="E158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F158" s="2">
         <v>45413</v>
@@ -3851,19 +3857,19 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B159">
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D159">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F159" s="2">
         <v>45413</v>
@@ -3871,19 +3877,19 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D160">
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F160" s="2">
         <v>45413</v>
@@ -3891,19 +3897,19 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B161">
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D161">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F161" s="2">
         <v>45413</v>
@@ -3911,19 +3917,19 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B162">
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F162" s="2">
         <v>45413</v>
@@ -3931,19 +3937,19 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B163">
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D163">
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F163" s="2">
         <v>45413</v>
@@ -3951,19 +3957,19 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B164">
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D164">
         <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F164" s="2">
         <v>45413</v>
@@ -3971,19 +3977,19 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B165">
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F165" s="2">
         <v>45413</v>
@@ -3991,19 +3997,19 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B166">
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F166" s="2">
         <v>45413</v>
@@ -4011,19 +4017,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B167">
         <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D167">
         <v>4</v>
       </c>
       <c r="E167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F167" s="2">
         <v>45413</v>
@@ -4031,19 +4037,19 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B168">
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D168">
         <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F168" s="2">
         <v>45413</v>
@@ -4051,19 +4057,19 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B169">
         <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D169">
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F169" s="2">
         <v>45413</v>
@@ -4071,19 +4077,19 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B170">
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D170">
         <v>4</v>
       </c>
       <c r="E170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F170" s="2">
         <v>45413</v>
@@ -4091,19 +4097,19 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B171">
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D171">
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F171" s="2">
         <v>45413</v>
@@ -4111,19 +4117,19 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B172">
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D172">
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F172" s="2">
         <v>45413</v>
@@ -4131,19 +4137,19 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B173">
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F173" s="2">
         <v>45413</v>
@@ -4151,19 +4157,19 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B174">
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F174" s="2">
         <v>45413</v>
@@ -4171,19 +4177,19 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B175">
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D175">
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F175" s="2">
         <v>45413</v>
@@ -4191,19 +4197,19 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B176">
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D176">
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F176" s="2">
         <v>45413</v>
@@ -4211,19 +4217,19 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B177">
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177">
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F177" s="2">
         <v>45413</v>
@@ -4231,19 +4237,19 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B178">
         <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F178" s="2">
         <v>45413</v>
@@ -4251,19 +4257,19 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B179">
         <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D179">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F179" s="2">
         <v>45413</v>
@@ -4271,19 +4277,19 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B180">
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D180">
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F180" s="2">
         <v>45413</v>
@@ -4291,19 +4297,19 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B181">
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D181">
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F181" s="2">
         <v>45413</v>
@@ -4311,19 +4317,19 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B182">
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D182">
         <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F182" s="2">
         <v>45413</v>
@@ -4331,19 +4337,19 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B183">
         <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D183">
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F183" s="2">
         <v>45413</v>
@@ -4351,19 +4357,19 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B184">
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184">
         <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F184" s="2">
         <v>45413</v>
@@ -4371,19 +4377,19 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B185">
         <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D185">
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F185" s="2">
         <v>45413</v>
@@ -4391,19 +4397,19 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B186">
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D186">
         <v>4</v>
       </c>
       <c r="E186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F186" s="2">
         <v>45413</v>
@@ -4411,19 +4417,19 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B187">
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D187">
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F187" s="2">
         <v>45413</v>
@@ -4431,19 +4437,19 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B188">
         <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D188">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F188" s="2">
         <v>45413</v>
@@ -4451,19 +4457,19 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B189">
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D189">
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F189" s="2">
         <v>45413</v>
@@ -4471,19 +4477,19 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B190">
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D190">
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F190" s="2">
         <v>45413</v>
@@ -4491,19 +4497,19 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B191">
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D191">
         <v>6</v>
       </c>
       <c r="E191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F191" s="2">
         <v>45413</v>
@@ -4511,19 +4517,19 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B192">
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192">
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F192" s="2">
         <v>45413</v>
@@ -4531,19 +4537,19 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B193">
         <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D193">
         <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F193" s="2">
         <v>45413</v>
@@ -4551,19 +4557,19 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B194">
         <v>20</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D194">
         <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F194" s="2">
         <v>45413</v>
@@ -4571,19 +4577,19 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B195">
         <v>20</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195">
         <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F195" s="2">
         <v>45413</v>
@@ -4591,19 +4597,19 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B196">
         <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D196">
         <v>8</v>
       </c>
       <c r="E196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F196" s="2">
         <v>45413</v>
@@ -4611,19 +4617,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B197">
         <v>20</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197">
         <v>6</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F197" s="2">
         <v>45413</v>
@@ -4631,19 +4637,19 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B198">
         <v>20</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D198">
         <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F198" s="2">
         <v>45413</v>
@@ -4651,19 +4657,19 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B199">
         <v>20</v>
       </c>
       <c r="C199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D199">
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F199" s="2">
         <v>45413</v>
@@ -4671,19 +4677,19 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B200">
         <v>20</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200">
         <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F200" s="2">
         <v>45413</v>
@@ -4691,19 +4697,19 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B201">
         <v>20</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D201">
         <v>16</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F201" s="2">
         <v>45413</v>
@@ -4711,19 +4717,19 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B202">
         <v>20</v>
       </c>
       <c r="C202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D202">
         <v>17</v>
       </c>
       <c r="E202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F202" s="2">
         <v>45413</v>
@@ -4731,19 +4737,19 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B203">
         <v>20</v>
       </c>
       <c r="C203" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D203">
         <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F203" s="2">
         <v>45413</v>
@@ -4751,19 +4757,19 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B204">
         <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D204">
         <v>17</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F204" s="2">
         <v>45413</v>
@@ -4771,19 +4777,19 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B205">
         <v>20</v>
       </c>
       <c r="C205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D205">
         <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F205" s="2">
         <v>45413</v>
@@ -4791,19 +4797,19 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B206">
         <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D206">
         <v>6</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F206" s="2">
         <v>45413</v>
@@ -4811,19 +4817,19 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B207">
         <v>20</v>
       </c>
       <c r="C207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D207">
         <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F207" s="2">
         <v>45413</v>
@@ -4831,19 +4837,19 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B208">
         <v>20</v>
       </c>
       <c r="C208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D208">
         <v>19</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F208" s="2">
         <v>45413</v>
@@ -4851,19 +4857,19 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B209">
         <v>20</v>
       </c>
       <c r="C209" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D209">
         <v>8</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F209" s="2">
         <v>45413</v>
@@ -4871,19 +4877,19 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B210">
         <v>20</v>
       </c>
       <c r="C210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D210">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F210" s="2">
         <v>45413</v>
@@ -4891,19 +4897,19 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B211">
         <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D211">
         <v>18</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F211" s="2">
         <v>45413</v>
@@ -4911,19 +4917,19 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B212">
         <v>20</v>
       </c>
       <c r="C212" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D212">
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F212" s="2">
         <v>45413</v>
@@ -4931,19 +4937,19 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B213">
         <v>20</v>
       </c>
       <c r="C213" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D213">
         <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F213" s="2">
         <v>45413</v>
@@ -4951,19 +4957,19 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B214">
         <v>20</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D214">
         <v>15</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F214" s="2">
         <v>45413</v>
@@ -4971,19 +4977,19 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B215">
         <v>20</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D215">
         <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F215" s="2">
         <v>45413</v>
@@ -4991,19 +4997,19 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B216">
         <v>20</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D216">
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F216" s="2">
         <v>45413</v>
@@ -5011,19 +5017,19 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B217">
         <v>20</v>
       </c>
       <c r="C217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D217">
         <v>13</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F217" s="2">
         <v>45413</v>
@@ -5031,19 +5037,19 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B218">
         <v>20</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D218">
         <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F218" s="2">
         <v>45413</v>
@@ -5051,19 +5057,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B219">
         <v>20</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D219">
         <v>19</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F219" s="2">
         <v>45413</v>
@@ -5071,19 +5077,19 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B220">
         <v>20</v>
       </c>
       <c r="C220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D220">
         <v>4</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F220" s="2">
         <v>45413</v>
@@ -5091,19 +5097,19 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B221">
         <v>20</v>
       </c>
       <c r="C221" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D221">
         <v>13</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F221" s="2">
         <v>45413</v>
@@ -5111,19 +5117,19 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B222">
         <v>20</v>
       </c>
       <c r="C222" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D222">
         <v>13</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F222" s="2">
         <v>45413</v>
@@ -5131,19 +5137,19 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B223">
         <v>20</v>
       </c>
       <c r="C223" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D223">
         <v>8</v>
       </c>
       <c r="E223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F223" s="2">
         <v>45413</v>
@@ -5151,19 +5157,19 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B224">
         <v>20</v>
       </c>
       <c r="C224" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D224">
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F224" s="2">
         <v>45413</v>
@@ -5171,19 +5177,19 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B225">
         <v>20</v>
       </c>
       <c r="C225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D225">
         <v>18</v>
       </c>
       <c r="E225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F225" s="2">
         <v>45413</v>
@@ -5191,19 +5197,19 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B226">
         <v>20</v>
       </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D226">
         <v>17</v>
       </c>
       <c r="E226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F226" s="2">
         <v>45413</v>
@@ -5211,19 +5217,19 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B227">
         <v>20</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D227">
         <v>19</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F227" s="2">
         <v>45413</v>
@@ -5231,19 +5237,19 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B228">
         <v>20</v>
       </c>
       <c r="C228" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D228">
         <v>8</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F228" s="2">
         <v>45413</v>
@@ -5251,19 +5257,19 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B229">
         <v>20</v>
       </c>
       <c r="C229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D229">
         <v>12</v>
       </c>
       <c r="E229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F229" s="2">
         <v>45413</v>
@@ -5271,19 +5277,19 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B230">
         <v>20</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D230">
         <v>9</v>
       </c>
       <c r="E230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F230" s="2">
         <v>45413</v>
@@ -5291,19 +5297,19 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B231">
         <v>20</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D231">
         <v>15</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F231" s="2">
         <v>45413</v>
@@ -5311,19 +5317,19 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B232">
         <v>20</v>
       </c>
       <c r="C232" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D232">
         <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F232" s="2">
         <v>45413</v>
@@ -5331,19 +5337,19 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B233">
         <v>6</v>
       </c>
       <c r="C233" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D233">
         <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F233" s="2">
         <v>45444</v>
@@ -5351,19 +5357,19 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B234">
         <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F234" s="2">
         <v>45444</v>
@@ -5371,19 +5377,19 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B235">
         <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F235" s="2">
         <v>45444</v>
@@ -5391,19 +5397,19 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B236">
         <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D236">
         <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F236" s="2">
         <v>45444</v>
@@ -5411,19 +5417,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B237">
         <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D237">
         <v>4</v>
       </c>
       <c r="E237" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F237" s="2">
         <v>45444</v>
@@ -5431,19 +5437,19 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B238">
         <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F238" s="2">
         <v>45444</v>
@@ -5451,19 +5457,19 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B239">
         <v>6</v>
       </c>
       <c r="C239" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D239">
         <v>2</v>
       </c>
       <c r="E239" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F239" s="2">
         <v>45444</v>
@@ -5471,19 +5477,19 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B240">
         <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F240" s="2">
         <v>45444</v>
@@ -5491,19 +5497,19 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B241">
         <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D241">
         <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F241" s="2">
         <v>45444</v>
@@ -5511,19 +5517,19 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
+        <v>67</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
         <v>66</v>
       </c>
-      <c r="B242">
-        <v>6</v>
-      </c>
-      <c r="C242" t="s">
-        <v>65</v>
-      </c>
       <c r="D242">
         <v>3</v>
       </c>
       <c r="E242" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F242" s="2">
         <v>45444</v>
@@ -5531,19 +5537,19 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B243">
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D243">
         <v>6</v>
       </c>
       <c r="E243" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F243" s="2">
         <v>45444</v>
@@ -5551,19 +5557,19 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B244">
         <v>6</v>
       </c>
       <c r="C244" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D244">
         <v>3</v>
       </c>
       <c r="E244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F244" s="2">
         <v>45444</v>
@@ -5571,19 +5577,19 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B245">
         <v>6</v>
       </c>
       <c r="C245" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D245">
         <v>4</v>
       </c>
       <c r="E245" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F245" s="2">
         <v>45444</v>
@@ -5591,19 +5597,19 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B246">
         <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D246">
         <v>2</v>
       </c>
       <c r="E246" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F246" s="2">
         <v>45444</v>
@@ -5611,19 +5617,19 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B247">
         <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D247">
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F247" s="2">
         <v>45444</v>
@@ -5631,19 +5637,19 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B248">
         <v>6</v>
       </c>
       <c r="C248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F248" s="2">
         <v>45444</v>
@@ -5651,19 +5657,19 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B249">
         <v>6</v>
       </c>
       <c r="C249" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D249">
         <v>1</v>
       </c>
       <c r="E249" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F249" s="2">
         <v>45444</v>
@@ -5671,19 +5677,19 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B250">
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D250">
         <v>5</v>
       </c>
       <c r="E250" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F250" s="2">
         <v>45444</v>
@@ -5691,19 +5697,19 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B251">
         <v>6</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D251">
         <v>2</v>
       </c>
       <c r="E251" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F251" s="2">
         <v>45444</v>
@@ -5711,19 +5717,19 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B252">
         <v>6</v>
       </c>
       <c r="C252" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D252">
         <v>1</v>
       </c>
       <c r="E252" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F252" s="2">
         <v>45444</v>
@@ -5731,19 +5737,19 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B253">
         <v>6</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D253">
         <v>4</v>
       </c>
       <c r="E253" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F253" s="2">
         <v>45444</v>
@@ -5751,19 +5757,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B254">
         <v>6</v>
       </c>
       <c r="C254" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D254">
         <v>4</v>
       </c>
       <c r="E254" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F254" s="2">
         <v>45444</v>
@@ -5771,19 +5777,19 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B255">
         <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D255">
         <v>5</v>
       </c>
       <c r="E255" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F255" s="2">
         <v>45444</v>
@@ -5791,19 +5797,19 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B256">
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D256">
         <v>6</v>
       </c>
       <c r="E256" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F256" s="2">
         <v>45444</v>
@@ -5811,19 +5817,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B257">
         <v>6</v>
       </c>
       <c r="C257" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D257">
         <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F257" s="2">
         <v>45444</v>
@@ -5831,19 +5837,19 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B258">
         <v>6</v>
       </c>
       <c r="C258" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D258">
         <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F258" s="2">
         <v>45444</v>
@@ -5851,19 +5857,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B259">
         <v>6</v>
       </c>
       <c r="C259" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D259">
         <v>4</v>
       </c>
       <c r="E259" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F259" s="2">
         <v>45444</v>
@@ -5871,19 +5877,19 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
+        <v>65</v>
+      </c>
+      <c r="B260">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
         <v>64</v>
-      </c>
-      <c r="B260">
-        <v>6</v>
-      </c>
-      <c r="C260" t="s">
-        <v>63</v>
       </c>
       <c r="D260">
         <v>2</v>
       </c>
       <c r="E260" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F260" s="2">
         <v>45444</v>
@@ -5891,19 +5897,19 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B261">
         <v>6</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D261">
         <v>4</v>
       </c>
       <c r="E261" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F261" s="2">
         <v>45444</v>
@@ -5911,19 +5917,19 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B262">
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D262">
         <v>5</v>
       </c>
       <c r="E262" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F262" s="2">
         <v>45444</v>
@@ -5931,19 +5937,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B263">
         <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F263" s="2">
         <v>45444</v>
@@ -5951,19 +5957,19 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B264">
         <v>6</v>
       </c>
       <c r="C264" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D264">
         <v>2</v>
       </c>
       <c r="E264" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F264" s="2">
         <v>45444</v>
@@ -5971,19 +5977,19 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B265">
         <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D265">
         <v>2</v>
       </c>
       <c r="E265" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F265" s="2">
         <v>45474</v>
@@ -5991,19 +5997,19 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B266">
         <v>6</v>
       </c>
       <c r="C266" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D266">
         <v>2</v>
       </c>
       <c r="E266" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F266" s="2">
         <v>45474</v>
@@ -6011,19 +6017,19 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B267">
         <v>6</v>
       </c>
       <c r="C267" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D267">
         <v>1</v>
       </c>
       <c r="E267" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F267" s="2">
         <v>45474</v>
@@ -6031,19 +6037,19 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B268">
         <v>6</v>
       </c>
       <c r="C268" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D268">
         <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F268" s="2">
         <v>45474</v>
@@ -6051,19 +6057,19 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B269">
         <v>6</v>
       </c>
       <c r="C269" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F269" s="2">
         <v>45474</v>
@@ -6071,19 +6077,19 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B270">
         <v>6</v>
       </c>
       <c r="C270" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D270">
         <v>2</v>
       </c>
       <c r="E270" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F270" s="2">
         <v>45474</v>
@@ -6091,19 +6097,19 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B271">
         <v>6</v>
       </c>
       <c r="C271" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D271">
         <v>1</v>
       </c>
       <c r="E271" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F271" s="2">
         <v>45474</v>
@@ -6111,19 +6117,19 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B272">
         <v>6</v>
       </c>
       <c r="C272" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D272">
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F272" s="2">
         <v>45474</v>
@@ -6131,19 +6137,19 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B273">
         <v>6</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D273">
         <v>2</v>
       </c>
       <c r="E273" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F273" s="2">
         <v>45474</v>
@@ -6151,19 +6157,19 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B274">
         <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D274">
         <v>5</v>
       </c>
       <c r="E274" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F274" s="2">
         <v>45474</v>
@@ -6171,19 +6177,19 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B275">
         <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D275">
         <v>3</v>
       </c>
       <c r="E275" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F275" s="2">
         <v>45474</v>
@@ -6191,19 +6197,19 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B276">
         <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D276">
         <v>5</v>
       </c>
       <c r="E276" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F276" s="2">
         <v>45474</v>
@@ -6211,19 +6217,19 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B277">
         <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F277" s="2">
         <v>45474</v>
@@ -6231,19 +6237,19 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B278">
         <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D278">
         <v>2</v>
       </c>
       <c r="E278" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F278" s="2">
         <v>45474</v>
@@ -6251,19 +6257,19 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B279">
         <v>6</v>
       </c>
       <c r="C279" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F279" s="2">
         <v>45474</v>
@@ -6271,19 +6277,19 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B280">
         <v>6</v>
       </c>
       <c r="C280" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D280">
         <v>4</v>
       </c>
       <c r="E280" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F280" s="2">
         <v>45474</v>
@@ -6291,19 +6297,19 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B281">
         <v>6</v>
       </c>
       <c r="C281" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D281">
         <v>3</v>
       </c>
       <c r="E281" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F281" s="2">
         <v>45474</v>
@@ -6311,19 +6317,19 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B282">
         <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D282">
         <v>3</v>
       </c>
       <c r="E282" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F282" s="2">
         <v>45474</v>
@@ -6331,19 +6337,19 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B283">
         <v>6</v>
       </c>
       <c r="C283" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D283">
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F283" s="2">
         <v>45474</v>
@@ -6351,19 +6357,19 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B284">
         <v>6</v>
       </c>
       <c r="C284" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D284">
         <v>4</v>
       </c>
       <c r="E284" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F284" s="2">
         <v>45474</v>
@@ -6371,19 +6377,19 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B285">
         <v>6</v>
       </c>
       <c r="C285" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D285">
         <v>2</v>
       </c>
       <c r="E285" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F285" s="2">
         <v>45474</v>
@@ -6391,19 +6397,19 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B286">
         <v>6</v>
       </c>
       <c r="C286" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D286">
         <v>3</v>
       </c>
       <c r="E286" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F286" s="2">
         <v>45474</v>
@@ -6411,19 +6417,19 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B287">
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D287">
         <v>4</v>
       </c>
       <c r="E287" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F287" s="2">
         <v>45474</v>
@@ -6431,19 +6437,19 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B288">
         <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D288">
         <v>1</v>
       </c>
       <c r="E288" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F288" s="2">
         <v>45474</v>
@@ -6451,19 +6457,19 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B289">
         <v>6</v>
       </c>
       <c r="C289" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D289">
         <v>3</v>
       </c>
       <c r="E289" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F289" s="2">
         <v>45474</v>
@@ -6471,19 +6477,19 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B290">
         <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D290">
         <v>6</v>
       </c>
       <c r="E290" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F290" s="2">
         <v>45474</v>
@@ -6491,19 +6497,19 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B291">
         <v>6</v>
       </c>
       <c r="C291" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D291">
         <v>1</v>
       </c>
       <c r="E291" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F291" s="2">
         <v>45474</v>
@@ -6511,19 +6517,19 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B292">
         <v>6</v>
       </c>
       <c r="C292" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D292">
         <v>4</v>
       </c>
       <c r="E292" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F292" s="2">
         <v>45474</v>
@@ -6531,19 +6537,19 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B293">
         <v>6</v>
       </c>
       <c r="C293" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D293">
         <v>4</v>
       </c>
       <c r="E293" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F293" s="2">
         <v>45474</v>
@@ -6551,19 +6557,19 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B294">
         <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D294">
         <v>1</v>
       </c>
       <c r="E294" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F294" s="2">
         <v>45474</v>
@@ -6571,19 +6577,19 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B295">
         <v>6</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D295">
         <v>1</v>
       </c>
       <c r="E295" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F295" s="2">
         <v>45474</v>
@@ -6591,19 +6597,19 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B296">
         <v>6</v>
       </c>
       <c r="C296" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D296">
         <v>4</v>
       </c>
       <c r="E296" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F296" s="2">
         <v>45474</v>
@@ -6611,19 +6617,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B297">
         <v>15</v>
       </c>
       <c r="C297" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D297">
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F297" s="2">
         <v>45474</v>
@@ -6631,19 +6637,19 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B298">
         <v>15</v>
       </c>
       <c r="C298" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D298">
         <v>4</v>
       </c>
       <c r="E298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F298" s="2">
         <v>45474</v>
@@ -6651,19 +6657,19 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B299">
         <v>15</v>
       </c>
       <c r="C299" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D299">
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F299" s="2">
         <v>45474</v>
@@ -6671,19 +6677,19 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B300">
         <v>15</v>
       </c>
       <c r="C300" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D300">
         <v>8</v>
       </c>
       <c r="E300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F300" s="2">
         <v>45474</v>
@@ -6691,19 +6697,19 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B301">
         <v>15</v>
       </c>
       <c r="C301" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D301">
         <v>14</v>
       </c>
       <c r="E301" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F301" s="2">
         <v>45474</v>
@@ -6711,19 +6717,19 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B302">
         <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D302">
         <v>3</v>
       </c>
       <c r="E302" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F302" s="2">
         <v>45474</v>
@@ -6731,19 +6737,19 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B303">
         <v>15</v>
       </c>
       <c r="C303" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D303">
         <v>2</v>
       </c>
       <c r="E303" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F303" s="2">
         <v>45474</v>
@@ -6751,19 +6757,19 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B304">
         <v>15</v>
       </c>
       <c r="C304" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D304">
         <v>5</v>
       </c>
       <c r="E304" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F304" s="2">
         <v>45474</v>
@@ -6771,19 +6777,19 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B305">
         <v>15</v>
       </c>
       <c r="C305" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D305">
         <v>6</v>
       </c>
       <c r="E305" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F305" s="2">
         <v>45474</v>
@@ -6791,19 +6797,19 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B306">
         <v>15</v>
       </c>
       <c r="C306" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D306">
         <v>13</v>
       </c>
       <c r="E306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F306" s="2">
         <v>45474</v>
@@ -6811,19 +6817,19 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B307">
         <v>15</v>
       </c>
       <c r="C307" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D307">
         <v>14</v>
       </c>
       <c r="E307" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F307" s="2">
         <v>45474</v>
@@ -6831,19 +6837,19 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B308">
         <v>15</v>
       </c>
       <c r="C308" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D308">
         <v>8</v>
       </c>
       <c r="E308" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F308" s="2">
         <v>45474</v>
@@ -6851,19 +6857,19 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B309">
         <v>15</v>
       </c>
       <c r="C309" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D309">
         <v>1</v>
       </c>
       <c r="E309" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F309" s="2">
         <v>45474</v>
@@ -6871,19 +6877,19 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B310">
         <v>15</v>
       </c>
       <c r="C310" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D310">
         <v>8</v>
       </c>
       <c r="E310" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F310" s="2">
         <v>45474</v>
@@ -6891,19 +6897,19 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B311">
         <v>15</v>
       </c>
       <c r="C311" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D311">
         <v>1</v>
       </c>
       <c r="E311" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F311" s="2">
         <v>45474</v>
@@ -6911,19 +6917,19 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B312">
         <v>15</v>
       </c>
       <c r="C312" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D312">
         <v>3</v>
       </c>
       <c r="E312" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F312" s="2">
         <v>45474</v>
@@ -6931,19 +6937,19 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B313">
         <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D313">
         <v>6</v>
       </c>
       <c r="E313" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F313" s="2">
         <v>45474</v>
@@ -6951,19 +6957,19 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B314">
         <v>15</v>
       </c>
       <c r="C314" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D314">
         <v>8</v>
       </c>
       <c r="E314" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F314" s="2">
         <v>45474</v>
@@ -6971,19 +6977,19 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B315">
         <v>15</v>
       </c>
       <c r="C315" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D315">
         <v>9</v>
       </c>
       <c r="E315" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F315" s="2">
         <v>45474</v>
@@ -6991,19 +6997,19 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B316">
         <v>15</v>
       </c>
       <c r="C316" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D316">
         <v>12</v>
       </c>
       <c r="E316" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F316" s="2">
         <v>45474</v>
@@ -7011,19 +7017,19 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B317">
         <v>15</v>
       </c>
       <c r="C317" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D317">
         <v>4</v>
       </c>
       <c r="E317" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F317" s="2">
         <v>45474</v>
@@ -7031,19 +7037,19 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B318">
         <v>15</v>
       </c>
       <c r="C318" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D318">
         <v>8</v>
       </c>
       <c r="E318" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F318" s="2">
         <v>45474</v>
@@ -7051,19 +7057,19 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B319">
         <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D319">
         <v>14</v>
       </c>
       <c r="E319" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F319" s="2">
         <v>45474</v>
@@ -7071,19 +7077,19 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B320">
         <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D320">
         <v>11</v>
       </c>
       <c r="E320" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F320" s="2">
         <v>45474</v>
@@ -7091,19 +7097,19 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B321">
         <v>15</v>
       </c>
       <c r="C321" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D321">
         <v>14</v>
       </c>
       <c r="E321" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F321" s="2">
         <v>45474</v>
@@ -7111,19 +7117,19 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B322">
         <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D322">
         <v>1</v>
       </c>
       <c r="E322" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F322" s="2">
         <v>45474</v>
@@ -7131,19 +7137,19 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B323">
         <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D323">
         <v>12</v>
       </c>
       <c r="E323" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F323" s="2">
         <v>45474</v>
@@ -7151,19 +7157,19 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B324">
         <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D324">
         <v>8</v>
       </c>
       <c r="E324" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F324" s="2">
         <v>45474</v>
@@ -7171,19 +7177,19 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B325">
         <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D325">
         <v>13</v>
       </c>
       <c r="E325" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F325" s="2">
         <v>45474</v>
@@ -7191,19 +7197,19 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B326">
         <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D326">
         <v>11</v>
       </c>
       <c r="E326" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F326" s="2">
         <v>45474</v>
@@ -7211,42 +7217,42 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B327">
         <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D327">
         <v>10</v>
       </c>
       <c r="E327" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F327" s="2">
         <v>45474</v>
       </c>
       <c r="G327" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B328">
         <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D328">
         <v>8</v>
       </c>
       <c r="E328" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F328" s="2">
         <v>45474</v>
@@ -7254,19 +7260,19 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B329">
         <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D329">
         <v>6</v>
       </c>
       <c r="E329" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F329" s="2">
         <v>45474</v>
@@ -7274,19 +7280,19 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B330">
         <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D330">
         <v>4</v>
       </c>
       <c r="E330" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F330" s="2">
         <v>45474</v>
@@ -7294,19 +7300,19 @@
     </row>
     <row r="331" spans="1:7">
       <c r="A331" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B331">
         <v>15</v>
       </c>
       <c r="C331" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D331">
         <v>4</v>
       </c>
       <c r="E331" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F331" s="2">
         <v>45474</v>
@@ -7314,19 +7320,19 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B332">
         <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D332">
         <v>7</v>
       </c>
       <c r="E332" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F332" s="2">
         <v>45474</v>
@@ -7334,19 +7340,19 @@
     </row>
     <row r="333" spans="1:7">
       <c r="A333" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B333">
         <v>15</v>
       </c>
       <c r="C333" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D333">
         <v>14</v>
       </c>
       <c r="E333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F333" s="2">
         <v>45474</v>
@@ -7354,19 +7360,19 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B334">
         <v>15</v>
       </c>
       <c r="C334" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D334">
         <v>11</v>
       </c>
       <c r="E334" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F334" s="2">
         <v>45474</v>
@@ -7374,19 +7380,19 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B335">
         <v>15</v>
       </c>
       <c r="C335" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D335">
         <v>12</v>
       </c>
       <c r="E335" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F335" s="2">
         <v>45474</v>
@@ -7394,19 +7400,19 @@
     </row>
     <row r="336" spans="1:7">
       <c r="A336" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B336">
         <v>15</v>
       </c>
       <c r="C336" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D336">
         <v>5</v>
       </c>
       <c r="E336" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F336" s="2">
         <v>45474</v>
@@ -7414,19 +7420,19 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B337">
         <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D337">
         <v>14</v>
       </c>
       <c r="E337" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F337" s="2">
         <v>45474</v>
@@ -7434,19 +7440,19 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B338">
         <v>15</v>
       </c>
       <c r="C338" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D338">
         <v>13</v>
       </c>
       <c r="E338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F338" s="2">
         <v>45474</v>
@@ -7454,19 +7460,19 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B339">
         <v>15</v>
       </c>
       <c r="C339" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D339">
         <v>5</v>
       </c>
       <c r="E339" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F339" s="2">
         <v>45474</v>
@@ -7474,19 +7480,19 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B340">
         <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D340">
         <v>11</v>
       </c>
       <c r="E340" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F340" s="2">
         <v>45474</v>
@@ -7494,19 +7500,19 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B341">
         <v>15</v>
       </c>
       <c r="C341" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D341">
         <v>1</v>
       </c>
       <c r="E341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F341" s="2">
         <v>45474</v>
@@ -7514,19 +7520,19 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B342">
         <v>15</v>
       </c>
       <c r="C342" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D342">
         <v>5</v>
       </c>
       <c r="E342" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F342" s="2">
         <v>45474</v>
@@ -7534,19 +7540,19 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B343">
         <v>15</v>
       </c>
       <c r="C343" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D343">
         <v>4</v>
       </c>
       <c r="E343" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F343" s="2">
         <v>45474</v>
@@ -7554,19 +7560,19 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B344">
         <v>15</v>
       </c>
       <c r="C344" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D344">
         <v>7</v>
       </c>
       <c r="E344" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F344" s="2">
         <v>45474</v>
@@ -7574,19 +7580,19 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B345">
         <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D345">
         <v>8</v>
       </c>
       <c r="E345" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F345" s="2">
         <v>45474</v>
@@ -7594,19 +7600,19 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B346">
         <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D346">
         <v>13</v>
       </c>
       <c r="E346" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F346" s="2">
         <v>45474</v>
@@ -7614,19 +7620,19 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B347">
         <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D347">
         <v>12</v>
       </c>
       <c r="E347" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F347" s="2">
         <v>45474</v>
@@ -7634,19 +7640,19 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B348">
         <v>15</v>
       </c>
       <c r="C348" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D348">
         <v>8</v>
       </c>
       <c r="E348" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F348" s="2">
         <v>45474</v>
@@ -7654,19 +7660,19 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B349">
         <v>15</v>
       </c>
       <c r="C349" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D349">
         <v>13</v>
       </c>
       <c r="E349" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F349" s="2">
         <v>45474</v>
@@ -7674,19 +7680,19 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B350">
         <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D350">
         <v>12</v>
       </c>
       <c r="E350" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F350" s="2">
         <v>45474</v>
@@ -7694,19 +7700,19 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B351">
         <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D351">
         <v>4</v>
       </c>
       <c r="E351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F351" s="2">
         <v>45474</v>
@@ -7714,19 +7720,19 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B352">
         <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D352">
         <v>10</v>
       </c>
       <c r="E352" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F352" s="2">
         <v>45474</v>
@@ -7734,19 +7740,19 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B353">
         <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D353">
         <v>5</v>
       </c>
       <c r="E353" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F353" s="2">
         <v>45474</v>
@@ -7754,19 +7760,19 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B354">
         <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D354">
         <v>5</v>
       </c>
       <c r="E354" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F354" s="2">
         <v>45474</v>
@@ -7774,19 +7780,19 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B355">
         <v>15</v>
       </c>
       <c r="C355" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D355">
         <v>12</v>
       </c>
       <c r="E355" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F355" s="2">
         <v>45474</v>
@@ -7794,19 +7800,19 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B356">
         <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D356">
         <v>7</v>
       </c>
       <c r="E356" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F356" s="2">
         <v>45474</v>
@@ -7814,19 +7820,19 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B357">
         <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D357">
         <v>13</v>
       </c>
       <c r="E357" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F357" s="2">
         <v>45474</v>
@@ -7834,19 +7840,19 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B358">
         <v>15</v>
       </c>
       <c r="C358" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D358">
         <v>11</v>
       </c>
       <c r="E358" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F358" s="2">
         <v>45474</v>
@@ -7854,19 +7860,19 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B359">
         <v>14</v>
       </c>
       <c r="C359" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D359">
         <v>13</v>
       </c>
       <c r="E359" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F359" s="2">
         <v>45474</v>
@@ -7874,19 +7880,19 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B360">
         <v>6</v>
       </c>
       <c r="C360" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D360">
         <v>0</v>
       </c>
       <c r="E360" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F360" s="2">
         <v>45505</v>
@@ -7894,19 +7900,19 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B361">
         <v>6</v>
       </c>
       <c r="C361" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D361">
         <v>2</v>
       </c>
       <c r="E361" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F361" s="2">
         <v>45505</v>
@@ -7914,19 +7920,19 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B362">
         <v>6</v>
       </c>
       <c r="C362" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D362">
         <v>4</v>
       </c>
       <c r="E362" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F362" s="2">
         <v>45505</v>
@@ -7934,19 +7940,19 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B363">
         <v>6</v>
       </c>
       <c r="C363" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D363">
         <v>2</v>
       </c>
       <c r="E363" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F363" s="2">
         <v>45505</v>
@@ -7954,19 +7960,19 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B364">
         <v>6</v>
       </c>
       <c r="C364" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D364">
         <v>3</v>
       </c>
       <c r="E364" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F364" s="2">
         <v>45505</v>
@@ -7974,19 +7980,19 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B365">
         <v>7</v>
       </c>
       <c r="C365" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D365">
         <v>5</v>
       </c>
       <c r="E365" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F365" s="2">
         <v>45505</v>
@@ -7994,19 +8000,19 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B366">
         <v>6</v>
       </c>
       <c r="C366" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D366">
         <v>2</v>
       </c>
       <c r="E366" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F366" s="2">
         <v>45505</v>
@@ -8014,19 +8020,19 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B367">
         <v>6</v>
       </c>
       <c r="C367" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D367">
         <v>1</v>
       </c>
       <c r="E367" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F367" s="2">
         <v>45505</v>
@@ -8034,19 +8040,19 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B368">
         <v>6</v>
       </c>
       <c r="C368" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D368">
         <v>2</v>
       </c>
       <c r="E368" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F368" s="2">
         <v>45505</v>
@@ -8054,19 +8060,19 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B369">
         <v>6</v>
       </c>
       <c r="C369" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D369">
         <v>1</v>
       </c>
       <c r="E369" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F369" s="2">
         <v>45505</v>
@@ -8074,19 +8080,19 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B370">
         <v>7</v>
       </c>
       <c r="C370" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D370">
         <v>5</v>
       </c>
       <c r="E370" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F370" s="2">
         <v>45505</v>
@@ -8094,19 +8100,19 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B371">
         <v>7</v>
       </c>
       <c r="C371" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D371">
         <v>5</v>
       </c>
       <c r="E371" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F371" s="2">
         <v>45505</v>
@@ -8114,19 +8120,19 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B372">
         <v>6</v>
       </c>
       <c r="C372" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D372">
         <v>2</v>
       </c>
       <c r="E372" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F372" s="2">
         <v>45505</v>
@@ -8134,19 +8140,19 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B373">
         <v>6</v>
       </c>
       <c r="C373" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D373">
         <v>1</v>
       </c>
       <c r="E373" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F373" s="2">
         <v>45505</v>
@@ -8154,19 +8160,19 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B374">
         <v>6</v>
       </c>
       <c r="C374" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D374">
         <v>3</v>
       </c>
       <c r="E374" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F374" s="2">
         <v>45505</v>
@@ -8174,21 +8180,281 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B375">
         <v>6</v>
       </c>
       <c r="C375" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D375">
         <v>4</v>
       </c>
       <c r="E375" t="s">
+        <v>28</v>
+      </c>
+      <c r="F375" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" t="s">
+        <v>76</v>
+      </c>
+      <c r="B376">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>75</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>28</v>
+      </c>
+      <c r="F376" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="s">
         <v>27</v>
       </c>
-      <c r="F375" s="2">
+      <c r="B377">
+        <v>6</v>
+      </c>
+      <c r="C377" t="s">
+        <v>71</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377" t="s">
+        <v>28</v>
+      </c>
+      <c r="F377" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" t="s">
+        <v>49</v>
+      </c>
+      <c r="B378">
+        <v>6</v>
+      </c>
+      <c r="C378" t="s">
+        <v>55</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378" t="s">
+        <v>28</v>
+      </c>
+      <c r="F378" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="s">
+        <v>17</v>
+      </c>
+      <c r="B379">
+        <v>6</v>
+      </c>
+      <c r="C379" t="s">
+        <v>38</v>
+      </c>
+      <c r="D379">
+        <v>4</v>
+      </c>
+      <c r="E379" t="s">
+        <v>28</v>
+      </c>
+      <c r="F379" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" t="s">
+        <v>37</v>
+      </c>
+      <c r="B380">
+        <v>6</v>
+      </c>
+      <c r="C380" t="s">
+        <v>74</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380" t="s">
+        <v>28</v>
+      </c>
+      <c r="F380" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381">
+        <v>6</v>
+      </c>
+      <c r="C381" t="s">
+        <v>35</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381" t="s">
+        <v>28</v>
+      </c>
+      <c r="F381" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" t="s">
+        <v>50</v>
+      </c>
+      <c r="B382">
+        <v>6</v>
+      </c>
+      <c r="C382" t="s">
+        <v>61</v>
+      </c>
+      <c r="D382">
+        <v>4</v>
+      </c>
+      <c r="E382" t="s">
+        <v>28</v>
+      </c>
+      <c r="F382" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" t="s">
+        <v>58</v>
+      </c>
+      <c r="B383">
+        <v>6</v>
+      </c>
+      <c r="C383" t="s">
+        <v>70</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383" t="s">
+        <v>28</v>
+      </c>
+      <c r="F383" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" t="s">
+        <v>76</v>
+      </c>
+      <c r="B384">
+        <v>6</v>
+      </c>
+      <c r="C384" t="s">
+        <v>27</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384" t="s">
+        <v>28</v>
+      </c>
+      <c r="F384" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" t="s">
+        <v>49</v>
+      </c>
+      <c r="B385">
+        <v>6</v>
+      </c>
+      <c r="C385" t="s">
+        <v>75</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
+      </c>
+      <c r="E385" t="s">
+        <v>28</v>
+      </c>
+      <c r="F385" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" t="s">
+        <v>38</v>
+      </c>
+      <c r="B386">
+        <v>6</v>
+      </c>
+      <c r="C386" t="s">
+        <v>55</v>
+      </c>
+      <c r="D386">
+        <v>4</v>
+      </c>
+      <c r="E386" t="s">
+        <v>28</v>
+      </c>
+      <c r="F386" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" t="s">
+        <v>74</v>
+      </c>
+      <c r="B387">
+        <v>6</v>
+      </c>
+      <c r="C387" t="s">
+        <v>35</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+      <c r="E387" t="s">
+        <v>28</v>
+      </c>
+      <c r="F387" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" t="s">
+        <v>70</v>
+      </c>
+      <c r="B388">
+        <v>6</v>
+      </c>
+      <c r="C388" t="s">
+        <v>61</v>
+      </c>
+      <c r="D388">
+        <v>4</v>
+      </c>
+      <c r="E388" t="s">
+        <v>28</v>
+      </c>
+      <c r="F388" s="2">
         <v>45505</v>
       </c>
     </row>
